--- a/S4. lung cancer sub-network analysis.xlsx
+++ b/S4. lung cancer sub-network analysis.xlsx
@@ -10,7 +10,7 @@
     <sheet name="C8" sheetId="6" r:id="rId1"/>
     <sheet name="C9" sheetId="3" r:id="rId2"/>
     <sheet name="C10" sheetId="5" r:id="rId3"/>
-    <sheet name="ETC" sheetId="7" r:id="rId4"/>
+    <sheet name="All" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>Proteoglycans in cancer</t>
   </si>
@@ -117,18 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스위치 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마리오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MYH1, MYH3, MYH2, MYH4, ACTN2, MYH13, MYH7, MYH6, MYH8, CTNNB1</t>
   </si>
   <si>
@@ -183,14 +171,6 @@
   </si>
   <si>
     <t>ECM-receptor interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -730,24 +710,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9">
         <v>1.43156145170738E-7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9">
         <v>2.1454857057669899E-5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,18 +738,18 @@
         <v>4.2834891249993196E-3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7">
         <v>5.5473634809781597E-3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -780,7 +760,7 @@
         <v>1.81514856591075E-2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -791,7 +771,7 @@
         <v>3.7538224406982498E-2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -802,29 +782,29 @@
         <v>4.11485466413316E-2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7">
         <v>7.4707775939585094E-2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7">
         <v>7.8386410510049506E-2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,18 +815,18 @@
         <v>8.7826290882610999E-2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="7">
         <v>9.0701501137901305E-2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +868,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7">
         <v>7</v>
@@ -995,7 +975,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1048576"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:E33"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,221 +1091,173 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.1E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>400000</v>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.74784944743275E-4</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>25000</v>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8.3000000000000002E-6</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>85000</v>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.6000000000000001E-8</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>70000</v>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>30000</v>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.43156145170738E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.7506587759523901E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.08305949028485E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="11">
+        <v>8.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6.0999999999999997E-4</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f>SUM(C6:C15)</f>
-        <v>610000</v>
-      </c>
-      <c r="D16">
-        <f>C16-425000</f>
-        <v>185000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4.1E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1.74784944743275E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8.3000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.6000000000000001E-8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.43156145170738E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6.7506587759523901E-10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1.08305949028485E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="11">
-        <v>8.7000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.6E-2</v>
-      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6.0999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/S4. lung cancer sub-network analysis.xlsx
+++ b/S4. lung cancer sub-network analysis.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="8205" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="C8" sheetId="6" r:id="rId1"/>
     <sheet name="C9" sheetId="3" r:id="rId2"/>
     <sheet name="C10" sheetId="5" r:id="rId3"/>
-    <sheet name="All" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Proteoglycans in cancer</t>
   </si>
@@ -113,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Proteoglycans in cancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MYH1, MYH3, MYH2, MYH4, ACTN2, MYH13, MYH7, MYH6, MYH8, CTNNB1</t>
   </si>
   <si>
@@ -171,114 +166,6 @@
   </si>
   <si>
     <t>ECM-receptor interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutamatergic synapse </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell adhesion molecules (CAMs) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Basal cell carcinoma  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxytocin signaling pathway </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteoglycans in cancer  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell adhesion molecules (CAMs)  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p-value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrhythmogenic right ventricular cardiomyopathy (ARVC) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Most statistically enriched KEGG pathway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Viral carcinogenesis  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,18 +197,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -351,25 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -686,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,135 +567,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.43156145170738E-7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.1454857057669899E-5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.2834891249993196E-3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.5473634809781597E-3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.81514856591075E-2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.7538224406982498E-2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.11485466413316E-2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="9">
-        <v>1.43156145170738E-7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2.1454857057669899E-5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4.2834891249993196E-3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5.5473634809781597E-3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1.81514856591075E-2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3.7538224406982498E-2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7">
-        <v>4.11485466413316E-2</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B9" s="2">
+        <v>7.4707775939585094E-2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7">
-        <v>7.4707775939585094E-2</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B10" s="2">
+        <v>7.8386410510049506E-2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8.7826290882610999E-2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="7">
-        <v>7.8386410510049506E-2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7">
-        <v>8.7826290882610999E-2</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B12" s="2">
+        <v>9.0701501137901305E-2</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="7">
-        <v>9.0701501137901305E-2</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -853,114 +722,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="5">
         <v>6.7506587759523901E-10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="5">
         <v>5.0058387258997203E-6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>6.1704325963367305E-5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="5">
         <v>7.0887281011941603E-4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>9.6807942438189992E-3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>3.21904563080911E-2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>0.116491306600818</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -975,7 +844,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -987,277 +856,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="3">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="3">
         <v>1.08305949028485E-3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="3">
         <v>1.41526411556404E-2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="3">
         <v>2.1490261562219299E-2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="3">
         <v>2.6260958061921601E-2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>4.2588951207449897E-2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.1E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.74784944743275E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="3">
-        <v>8.3000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.6000000000000001E-8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.43156145170738E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6.7506587759523901E-10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.08305949028485E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="11">
-        <v>8.7000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6.0999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
